--- a/biology/Botanique/Calebasse_à_la_Reine/Calebasse_à_la_Reine.xlsx
+++ b/biology/Botanique/Calebasse_à_la_Reine/Calebasse_à_la_Reine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calebasse_%C3%A0_la_Reine</t>
+          <t>Calebasse_à_la_Reine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Calebasse à la Reine est une variété ancienne  de poire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Calebasse_%C3%A0_la_Reine</t>
+          <t>Calebasse_à_la_Reine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Calebasse de Belgique[1].
-Poire à vin[2].
-Spaanse Wijnpeer[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Calebasse de Belgique.
+Poire à vin.
+Spaanse Wijnpeer.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calebasse_%C3%A0_la_Reine</t>
+          <t>Calebasse_à_la_Reine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son origine est ancienne et incertaine[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son origine est ancienne et incertaine.
 André Leroy ne mentionne pas cette poire dans son Dictionnaire de pomologie.
-Elle pourrait avoir été obtenue vers 1770 par Donat Leclercq, jardinier à Tournai, un des premiers obtenteurs belges après Nicolas Hardenpont[3],[5].
+Elle pourrait avoir été obtenue vers 1770 par Donat Leclercq, jardinier à Tournai, un des premiers obtenteurs belges après Nicolas Hardenpont,.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Calebasse_%C3%A0_la_Reine</t>
+          <t>Calebasse_à_la_Reine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,22 +594,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre
-Vigueur : moyenne.
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vigueur : moyenne.
 Charpente : développement élancé.
 Adaptation au porte-greffe : moyenne à bonne affinité de greffe au cognassier.
 Époque de floraison: avril-mai.
 Fertilité : très forte, précoce et régulière, les fruits chutent facilement. Sensibilité aux maladies, aux ravageurs et aux désordres physiologiques : peu à moyennement sensible à la tavelure sur feuilles et fruits, peu sensible sur bois.
 Indications pour la conduite de l'arbre : conduite traditionnelle en haute-tige mais également toutes formes basses-tiges libres. Jamais observée en palissé mais peut bien s'y prêter (‘U’, palmette ‘Verrier’). 
-Remarques : forme de bonnes tiges, pour la production des arbres en pépinière, on greffe au pied (ras de terre). Variété traditionnelle très fertile et encore cultivée en haute-tige dans le Hainaut. Les fruits doivent impérativement être entre-cueillis et surveillés de près car ils blettissent facilement à partir du cœur[3].
-Fruit
-Moyen ou petit, piriforme allongé ou en forme de calebasse.
-Épiderme : vert jaunâtre, presque totalement recouvert de fauve clair, piqueté finement de jaune foncé.
-Œil : petit au sommet du fruit.
-Pédicelle : long, mince, implanté dans une cavité presque, nulle, un peu arqué.
-Chair : mi-fine, sucrée, parfumée[4].
-Qualité : bonne.
-Maturité : automne[1].
+Remarques : forme de bonnes tiges, pour la production des arbres en pépinière, on greffe au pied (ras de terre). Variété traditionnelle très fertile et encore cultivée en haute-tige dans le Hainaut. Les fruits doivent impérativement être entre-cueillis et surveillés de près car ils blettissent facilement à partir du cœur.
 </t>
         </is>
       </c>
@@ -604,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calebasse_%C3%A0_la_Reine</t>
+          <t>Calebasse_à_la_Reine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,12 +632,57 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moyen ou petit, piriforme allongé ou en forme de calebasse.
+Épiderme : vert jaunâtre, presque totalement recouvert de fauve clair, piqueté finement de jaune foncé.
+Œil : petit au sommet du fruit.
+Pédicelle : long, mince, implanté dans une cavité presque, nulle, un peu arqué.
+Chair : mi-fine, sucrée, parfumée.
+Qualité : bonne.
+Maturité : automne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Calebasse_à_la_Reine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calebasse_%C3%A0_la_Reine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette variété est spécialement cultivée au verger pour la confiserie[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété est spécialement cultivée au verger pour la confiserie.
 </t>
         </is>
       </c>
